--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Jordan_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Jordan_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G351"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7661,16 +7661,16 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>32959300000</v>
+        <v>32957600000</v>
       </c>
       <c r="D289" t="n">
-        <v>32959300000</v>
+        <v>32957600000</v>
       </c>
       <c r="E289" t="n">
-        <v>32959300000</v>
+        <v>32957600000</v>
       </c>
       <c r="F289" t="n">
-        <v>32959300000</v>
+        <v>32957600000</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
@@ -8486,16 +8486,16 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>36721000000</v>
+        <v>36383400000</v>
       </c>
       <c r="D322" t="n">
-        <v>36721000000</v>
+        <v>36383400000</v>
       </c>
       <c r="E322" t="n">
-        <v>36721000000</v>
+        <v>36383400000</v>
       </c>
       <c r="F322" t="n">
-        <v>36721000000</v>
+        <v>36383400000</v>
       </c>
       <c r="G322" t="n">
         <v>0</v>
@@ -8611,16 +8611,16 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>37458200000</v>
+        <v>37472200000</v>
       </c>
       <c r="D327" t="n">
-        <v>37458200000</v>
+        <v>37472200000</v>
       </c>
       <c r="E327" t="n">
-        <v>37458200000</v>
+        <v>37472200000</v>
       </c>
       <c r="F327" t="n">
-        <v>37458200000</v>
+        <v>37472200000</v>
       </c>
       <c r="G327" t="n">
         <v>0</v>
@@ -8636,16 +8636,16 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>37496900000</v>
+        <v>37492700000</v>
       </c>
       <c r="D328" t="n">
-        <v>37496900000</v>
+        <v>37492700000</v>
       </c>
       <c r="E328" t="n">
-        <v>37496900000</v>
+        <v>37492700000</v>
       </c>
       <c r="F328" t="n">
-        <v>37496900000</v>
+        <v>37492700000</v>
       </c>
       <c r="G328" t="n">
         <v>0</v>
@@ -9223,6 +9223,56 @@
         <v>41436500000</v>
       </c>
       <c r="G351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JOM2</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>41710700000</v>
+      </c>
+      <c r="D352" t="n">
+        <v>41710700000</v>
+      </c>
+      <c r="E352" t="n">
+        <v>41710700000</v>
+      </c>
+      <c r="F352" t="n">
+        <v>41710700000</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JOM2</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>41839100000</v>
+      </c>
+      <c r="D353" t="n">
+        <v>41839100000</v>
+      </c>
+      <c r="E353" t="n">
+        <v>41839100000</v>
+      </c>
+      <c r="F353" t="n">
+        <v>41839100000</v>
+      </c>
+      <c r="G353" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Jordan_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Jordan_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1:G354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9276,6 +9276,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JOM2</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>41661000000</v>
+      </c>
+      <c r="D354" t="n">
+        <v>41661000000</v>
+      </c>
+      <c r="E354" t="n">
+        <v>41661000000</v>
+      </c>
+      <c r="F354" t="n">
+        <v>41661000000</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Jordan_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Jordan_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G354"/>
+  <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -9298,6 +9298,31 @@
         <v>41661000000</v>
       </c>
       <c r="G354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JOM2</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>41988600000</v>
+      </c>
+      <c r="D355" t="n">
+        <v>41988600000</v>
+      </c>
+      <c r="E355" t="n">
+        <v>41988600000</v>
+      </c>
+      <c r="F355" t="n">
+        <v>41988600000</v>
+      </c>
+      <c r="G355" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Jordan_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Jordan_M2.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Jordan_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Jordan_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G355"/>
+  <dimension ref="A1:G358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9326,6 +9326,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JOM2</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>42159200000</v>
+      </c>
+      <c r="D356" t="n">
+        <v>42159200000</v>
+      </c>
+      <c r="E356" t="n">
+        <v>42159200000</v>
+      </c>
+      <c r="F356" t="n">
+        <v>42159200000</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JOM2</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>42219900000</v>
+      </c>
+      <c r="D357" t="n">
+        <v>42219900000</v>
+      </c>
+      <c r="E357" t="n">
+        <v>42219900000</v>
+      </c>
+      <c r="F357" t="n">
+        <v>42219900000</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JOM2</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>42344700000</v>
+      </c>
+      <c r="D358" t="n">
+        <v>42344700000</v>
+      </c>
+      <c r="E358" t="n">
+        <v>42344700000</v>
+      </c>
+      <c r="F358" t="n">
+        <v>42344700000</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
